--- a/learningschedule.xlsx
+++ b/learningschedule.xlsx
@@ -55,9 +55,6 @@
     <t>Effective Java 2 PDF</t>
   </si>
   <si>
-    <t>http://sixrevisions.com/git/interactive-git-tutorials/</t>
-  </si>
-  <si>
     <t xml:space="preserve">Date 
 </t>
   </si>
@@ -73,13 +70,18 @@
   </si>
   <si>
     <t>Module Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://sixrevisions.com/git/interactive-git-tutorials/
+https://git-scm.com/book/en/v2
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,14 +102,6 @@
       <i/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -157,9 +151,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -181,15 +174,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -471,7 +463,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,13 +484,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>5</v>
@@ -508,8 +500,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>11</v>
+      <c r="A4" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -520,41 +512,41 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="7" t="s">
-        <v>9</v>
+      <c r="D5" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="2"/>
@@ -564,9 +556,6 @@
   <mergeCells count="1">
     <mergeCell ref="A4:A8"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>